--- a/data/Marshals_Evictions_Data_Dictionary_4.2021 (2).xlsx
+++ b/data/Marshals_Evictions_Data_Dictionary_4.2021 (2).xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Special Advisor\Open Data\Dictionary's\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jc/Desktop/Baruch/2025Spring/cis4400/HW/cis4400-spr-2025-hw-Eviction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04019AD-A2A2-AB40-AA44-E1C1706EC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="840" windowWidth="18440" windowHeight="16340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
     <sheet name="Revision History" sheetId="3" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="13" r:id="rId3"/>
+    <sheet name="update dictionary" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$A$4</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -294,15 +296,123 @@
   <si>
     <t>Eviction, Possession</t>
   </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Expected Values / Constraints</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Year extracted from Executed Date</t>
+  </si>
+  <si>
+    <t>2017–Present</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Quarter of the year (1–4)</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month of the year (1–12)</t>
+  </si>
+  <si>
+    <t>1–12</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>eviction_id</t>
+  </si>
+  <si>
+    <t>Unique eviction identifier</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>court_index_number</t>
+  </si>
+  <si>
+    <t>Court reference number</t>
+  </si>
+  <si>
+    <t>Unique per case</t>
+  </si>
+  <si>
+    <t>docket_number</t>
+  </si>
+  <si>
+    <t>Docket number for eviction case</t>
+  </si>
+  <si>
+    <t>May be duplicated</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Address of eviction</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>borough</t>
+  </si>
+  <si>
+    <t>Borough of eviction</t>
+  </si>
+  <si>
+    <t>['Bronx', 'Brooklyn', ...]</t>
+  </si>
+  <si>
+    <t>date_of_eviction</t>
+  </si>
+  <si>
+    <t>Execution date of eviction</t>
+  </si>
+  <si>
+    <t>&gt;= 2017-01-01</t>
+  </si>
+  <si>
+    <t>marshal_name</t>
+  </si>
+  <si>
+    <t>Full name of city marshal</t>
+  </si>
+  <si>
+    <t>property_type</t>
+  </si>
+  <si>
+    <t>Residential or Commercial</t>
+  </si>
+  <si>
+    <t>Two values only</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -405,6 +515,17 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -552,15 +673,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,15 +740,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -661,12 +773,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,9 +930,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -850,14 +964,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -876,9 +990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -916,9 +1030,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,7 +1067,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,7 +1102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1161,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1171,24 +1285,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="105.140625" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="105.1640625" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16"/>
     </row>
-    <row r="2" spans="1:1" ht="134.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="139" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
     </row>
   </sheetData>
@@ -1212,9 +1326,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>12700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1229,31 +1343,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1269,7 +1383,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1413,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>1.2</v>
       </c>
@@ -1314,7 +1428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
@@ -1327,7 +1441,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1450,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1459,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1468,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1477,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -1372,81 +1486,81 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -1459,24 +1573,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21:D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="23.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="23" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
@@ -1504,67 +1618,67 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:4" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:4" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:4" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -1574,11 +1688,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -1588,11 +1702,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -1602,11 +1716,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:4" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -1616,11 +1730,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:4" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -1630,39 +1744,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:4" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:4" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -1672,11 +1786,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -1686,11 +1800,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -1700,11 +1814,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -1714,11 +1828,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -1728,11 +1842,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -1742,11 +1856,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -1756,11 +1870,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -1770,36 +1884,248 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE64AE5-BDD7-BC49-A07D-76229C2FC34E}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="23" spans="5:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="5:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="5:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="E25" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>